--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2063410.636803815</v>
+        <v>2116289.549521506</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484434</v>
+        <v>278692.072591685</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5713382.226083144</v>
+        <v>5784329.026391997</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,10 +665,10 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>315.2964759513333</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>74.85450227885472</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +789,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327043</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
         <v>174.5731815300314</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -829,13 +829,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>178.5835130238848</v>
       </c>
       <c r="X4" t="n">
-        <v>163.293878347428</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>203.5980875617417</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>286.2721000371766</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1063,10 +1063,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>34.06158462964585</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>146.6325435271071</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>332.4291174559667</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>318.0004189017059</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1303,7 +1303,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.953800019352</v>
       </c>
       <c r="W10" t="n">
-        <v>84.29140345193706</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>165.7499153537906</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>120.1838601509832</v>
       </c>
       <c r="T13" t="n">
-        <v>212.6072792671026</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>90.97964783089239</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1768,19 +1768,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>111.7936689725567</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615944</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>255.3659184735861</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226066</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>99.68042330889588</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556909</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>35.51678257079473</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2485,13 +2485,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>86.74508580040352</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>35.34780583513542</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>281.6392935584443</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2956,19 +2956,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>134.780682262288</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>136.9505762815748</v>
       </c>
     </row>
     <row r="35">
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>187.5234134555184</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3521,7 +3521,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.990622819022123</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4898091149242</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>128.6631732150285</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>54.66258501924935</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>32.67077719907276</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4147,10 +4147,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>35.51678257079519</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4183,7 +4183,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>73.01514676193786</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>846.6806259663152</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>812.5785571901426</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>780.7091764049912</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>670.4887227422939</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3462593216046</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>1272.980196451223</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4413,16 +4413,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>1697.183430080417</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>546.2867191875922</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>341.5177676270667</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>135.8631337263175</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.25941213986529</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.90022853073</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847747</v>
       </c>
       <c r="V5" t="n">
-        <v>1408.019692669128</v>
+        <v>1596.060975781573</v>
       </c>
       <c r="W5" t="n">
-        <v>1003.164238080161</v>
+        <v>1191.205521192606</v>
       </c>
       <c r="X5" t="n">
-        <v>584.0217746594717</v>
+        <v>772.063057771917</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>363.7769340715704</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4397056785397</v>
+        <v>593.0357356940385</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>420.4740241772635</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>254.5960313787861</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>84.8380276295234</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055678</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1529.692184179213</v>
       </c>
       <c r="W7" t="n">
-        <v>1549.069749750006</v>
+        <v>1257.665779765505</v>
       </c>
       <c r="X7" t="n">
-        <v>1303.677995083419</v>
+        <v>1012.274025098917</v>
       </c>
       <c r="Y7" t="n">
-        <v>1076.258324397527</v>
+        <v>784.8543544130257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>1961.302779388836</v>
       </c>
       <c r="C8" t="n">
-        <v>1318.974446717864</v>
+        <v>1927.200710612663</v>
       </c>
       <c r="D8" t="n">
-        <v>890.3927724551322</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1987.807665493282</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1983.561945833339</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>947.4105542393174</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C10" t="n">
-        <v>774.8488427225424</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>608.9708499240651</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>439.2128461748023</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>262.5057921365585</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1704.735495389923</v>
       </c>
       <c r="W10" t="n">
-        <v>1612.040598310784</v>
+        <v>1432.709090976214</v>
       </c>
       <c r="X10" t="n">
-        <v>1366.648843644196</v>
+        <v>1187.317336309627</v>
       </c>
       <c r="Y10" t="n">
-        <v>1139.229172958305</v>
+        <v>959.897665623735</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168569</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1527660539752</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693464</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.99017326377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097166</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.79883405576</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239597</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112636</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429653</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363479</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353823</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653476</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>837.3544329777442</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C13" t="n">
-        <v>837.3544329777442</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2597.522611637232</v>
       </c>
       <c r="T13" t="n">
-        <v>2339.399390339383</v>
+        <v>2351.643165215688</v>
       </c>
       <c r="U13" t="n">
-        <v>2060.966389592489</v>
+        <v>2073.210164468793</v>
       </c>
       <c r="V13" t="n">
-        <v>1774.010881462919</v>
+        <v>1786.254656339223</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.984477049211</v>
+        <v>1514.228251925515</v>
       </c>
       <c r="X13" t="n">
-        <v>1256.592722382623</v>
+        <v>1268.836497258927</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.173051696732</v>
+        <v>1041.416826573035</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>97.1527660539752</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693464</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693464</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.99017326377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097166</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.79883405576</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239597</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112636</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429653</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987273</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819523</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>520.7452046298749</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>350.9872008806122</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>350.9872008806122</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>185.3959259064399</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177142</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181345</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985803</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277507</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510145</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423071</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137072</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742886</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832466</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085326</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085326</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2574.179093706239</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.358760276545</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4382.668635109942</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4929.167421068536</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068536</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252373</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125412</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442428</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376255</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787288</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366599</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666252</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126635</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493058</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958591</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228128</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389744</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051582</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137072</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818283</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480406</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132059</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924267</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1177.641509033253</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516477</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047179998</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>669.443800968737</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304932</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466954</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137072</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860606</v>
+        <v>188.8405254354727</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571962</v>
+        <v>463.5989800066083</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251572</v>
+        <v>881.8088617745692</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622167</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200622</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2209.43484692901</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1922.47933879944</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1650.452934385732</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1405.061179719144</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1177.641509033253</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1003.573296407379</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>831.0115848906039</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>665.1335920921266</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>495.3755883428639</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545775</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6157,7 +6157,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6227,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2627364873769</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1632.322702740236</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883918</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716167</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731394</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238766</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6415,19 +6415,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707797</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7075,7 +7075,7 @@
         <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674087</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
         <v>673.1212928181459</v>
@@ -7084,7 +7084,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1845.949044954128</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954128</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
         <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601649</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7184,40 +7184,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674088</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7351,31 +7351,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2712.869316012954</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2553.627947310951</v>
       </c>
       <c r="T40" t="n">
-        <v>2437.972203577713</v>
+        <v>2307.748500889406</v>
       </c>
       <c r="U40" t="n">
-        <v>2159.539202830818</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="V40" t="n">
-        <v>1872.583694701249</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W40" t="n">
-        <v>1600.55729028754</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538674</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722098</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896542</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054837</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640449</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873083</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305241</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305241</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.668155983442</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.07841419448</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.07841419448</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410852</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981158</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814554</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773148</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526205</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710042</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.05875148274</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.836448799757</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.219498733584</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144618</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723929</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.935457023582</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218169</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584592</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050124</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319661</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481277</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143116</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305241</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909817</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.035466657194</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282918</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282918</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282918</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282918</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282918</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282918</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223592</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.88911460158</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142406</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.909917625631</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271533</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>671.2739210778905</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396466</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654743</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558488</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305241</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952139</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663495</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343105</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138696</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2695.655257138696</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2449.775810717152</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2171.342809970257</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>2116.128077627581</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.101673213872</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1598.709918547285</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861393</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062125</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245549</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419993</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578288</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874956</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>97.1527660539752</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.836108510714</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302704</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4803.798049006192</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.798049006192</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.575746323209</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.958796257036</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.103341668069</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.96087824738</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547033</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1071.767500933669</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C46" t="n">
-        <v>899.2057894168943</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D46" t="n">
-        <v>733.3277966184169</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E46" t="n">
-        <v>563.5697928691543</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F46" t="n">
-        <v>386.8627388309105</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G46" t="n">
-        <v>221.2714638567381</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745692</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587284</v>
+        <v>2623.749955382047</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165739</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418844</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V46" t="n">
-        <v>2008.423949418844</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W46" t="n">
-        <v>1736.397545005136</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X46" t="n">
-        <v>1491.005790338548</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y46" t="n">
-        <v>1263.586119652657</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8061,7 +8061,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>624.8248713018634</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,13 +8468,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807414</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>132.2533329504172</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>459.5978749662599</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,10 +9890,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10355,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365290115</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,13 +11303,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>860.0355415814579</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>268.0111327346203</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665254</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>37.46509486400015</v>
       </c>
       <c r="T13" t="n">
-        <v>30.81337269022669</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>268.0111327346193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>52.4255438979358</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>178.3951296148248</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627226</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>175.9682474305298</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>248.5691704774791</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>88.19489769745782</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>2.446659489829528</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>33.27974144948212</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>88.194897697458</v>
       </c>
     </row>
     <row r="35">
@@ -25360,19 +25360,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>96.56253959275547</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25594,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>15.21302026265971</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9308428424051</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>89.20338164066327</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665254</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>229.4233680290245</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.1445778789286</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>102.986369995734</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>84.63380825304544</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>494796.88109207</v>
+        <v>499024.3218998284</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>494796.88109207</v>
+        <v>499785.4819151369</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>480760.9122134679</v>
+        <v>501049.5720830372</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>480760.9122134681</v>
+        <v>501049.5720830371</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>487544.9162494798</v>
+        <v>501049.5720830372</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>501049.5720830372</v>
+        <v>501049.5720830371</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>501049.5720830371</v>
+        <v>501049.572083037</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>494265.5680470253</v>
+        <v>501049.5720830371</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>480760.9122134679</v>
+        <v>501049.5720830372</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>455725.2219068474</v>
+      </c>
+      <c r="C2" t="n">
         <v>455725.2219068473</v>
-      </c>
-      <c r="C2" t="n">
-        <v>455725.2219068474</v>
       </c>
       <c r="D2" t="n">
         <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
-        <v>429695.3132759249</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="F2" t="n">
-        <v>429695.3132759251</v>
+        <v>447828.9465167497</v>
       </c>
       <c r="G2" t="n">
-        <v>435758.7320470103</v>
+        <v>447828.9465167497</v>
       </c>
       <c r="H2" t="n">
-        <v>447828.9465167493</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="I2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="J2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="K2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="L2" t="n">
         <v>447828.9465167496</v>
@@ -26347,13 +26347,13 @@
         <v>447828.9465167494</v>
       </c>
       <c r="N2" t="n">
-        <v>447828.9465167493</v>
+        <v>447828.9465167497</v>
       </c>
       <c r="O2" t="n">
-        <v>441765.5277456641</v>
+        <v>447828.9465167497</v>
       </c>
       <c r="P2" t="n">
-        <v>429695.313275925</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220375</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042849131</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996453</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,19 +26418,19 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>138489.2977955547</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26563.08616012789</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
-        <v>26563.08616012789</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>26937.9171398129</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26454,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27309.24777051766</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>26563.08616012789</v>
+        <v>27684.07875020269</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024174</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319831</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72676.74664945295</v>
+        <v>72676.74664945304</v>
       </c>
       <c r="C6" t="n">
-        <v>214868.047309163</v>
+        <v>178691.9424082738</v>
       </c>
       <c r="D6" t="n">
-        <v>214868.0473091629</v>
+        <v>239227.8015630869</v>
       </c>
       <c r="E6" t="n">
-        <v>95257.862816112</v>
+        <v>160048.2956003219</v>
       </c>
       <c r="F6" t="n">
-        <v>329612.8848381497</v>
+        <v>342403.4048213718</v>
       </c>
       <c r="G6" t="n">
-        <v>327568.2590641066</v>
+        <v>342403.4048213718</v>
       </c>
       <c r="H6" t="n">
-        <v>330023.8741807896</v>
+        <v>342403.4048213717</v>
       </c>
       <c r="I6" t="n">
-        <v>342426.6291607543</v>
+        <v>342403.4048213717</v>
       </c>
       <c r="J6" t="n">
-        <v>231412.1638157641</v>
+        <v>231388.9394763815</v>
       </c>
       <c r="K6" t="n">
-        <v>342426.6291607544</v>
+        <v>289357.5501825992</v>
       </c>
       <c r="L6" t="n">
-        <v>342426.6291607544</v>
+        <v>333011.1030947494</v>
       </c>
       <c r="M6" t="n">
-        <v>146825.4498776864</v>
+        <v>190203.233883384</v>
       </c>
       <c r="N6" t="n">
-        <v>342426.6291607541</v>
+        <v>342403.4048213718</v>
       </c>
       <c r="O6" t="n">
-        <v>338142.0438919482</v>
+        <v>342403.4048213718</v>
       </c>
       <c r="P6" t="n">
-        <v>329612.8848381495</v>
+        <v>342403.4048213717</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267134</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631551</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319383</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811761107</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938357</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319383</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811761107</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,10 +27385,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>114.1405214419544</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.3487601844884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>90.72262734568656</v>
       </c>
       <c r="X4" t="n">
-        <v>79.64395877249362</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>230.1629605266692</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>72.71868052833514</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>140.8783988682155</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>122.6735968424643</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>101.3319306324442</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>113.550268075594</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>5.132153028921834</v>
       </c>
       <c r="W10" t="n">
-        <v>185.0147369176343</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-7.955339370490157e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-4.626503470622263e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30633,7 +30633,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.250036804665917e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34781,7 +34781,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>624.8248713018634</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,13 +35188,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807414</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>132.2533329504172</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908388</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36595,13 +36595,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>459.5978749662599</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,10 +36610,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37719,7 +37719,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821575</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365290115</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37856,7 +37856,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37941,7 +37941,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38017,19 +38017,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>860.0355415814579</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080447</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
